--- a/output/Loans Data Lite_recreated_fixed.xlsx
+++ b/output/Loans Data Lite_recreated_fixed.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,25 +27,26 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,10 +66,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -85,27 +95,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
